--- a/data/stats/Russell Westbrook.xlsx
+++ b/data/stats/Russell Westbrook.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,6 +1050,56 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>@ Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>P
+105-90</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2-7</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
